--- a/data/data.xlsx
+++ b/data/data.xlsx
@@ -18,7 +18,7 @@
     <sheet name="activity" sheetId="2" r:id="rId3"/>
     <sheet name="note" sheetId="3" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191029" fullCalcOnLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="37">
   <si>
     <t>Name</t>
   </si>
@@ -44,6 +44,9 @@
     <t>Last</t>
   </si>
   <si>
+    <t>Account Name</t>
+  </si>
+  <si>
     <t>Address</t>
   </si>
   <si>
@@ -80,6 +83,24 @@
     <t>www.argusfarmstop.com</t>
   </si>
   <si>
+    <t>user</t>
+  </si>
+  <si>
+    <t>password</t>
+  </si>
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>email</t>
+  </si>
+  <si>
+    <t>phone</t>
+  </si>
+  <si>
+    <t>customer</t>
+  </si>
+  <si>
     <t>activity</t>
   </si>
   <si>
@@ -98,6 +119,9 @@
     <t>end_date</t>
   </si>
   <si>
+    <t>Gonzalo Munoz</t>
+  </si>
+  <si>
     <t>create system</t>
   </si>
   <si>
@@ -122,35 +146,15 @@
     <t>esta vez si tiene que funcionar</t>
   </si>
   <si>
-    <t>customer</t>
-  </si>
-  <si>
-    <t>Account Name</t>
-  </si>
-  <si>
-    <t>Gonzalo Munoz</t>
-  </si>
-  <si>
-    <t>user</t>
-  </si>
-  <si>
-    <t>password</t>
-  </si>
-  <si>
-    <t>name</t>
-  </si>
-  <si>
-    <t>email</t>
-  </si>
-  <si>
-    <t>phone</t>
+    <t>is there anything else we can do for you!?</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <numFmts count="0"/>
+  <fonts count="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -179,11 +183,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
+  <cellXfs count="5">
+    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0" applyProtection="1"/>
+    <xf numFmtId="14" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0" applyProtection="1"/>
+    <xf numFmtId="22" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0" applyProtection="1"/>
+    <xf numFmtId="22" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0" applyProtection="1"/>
+    <xf numFmtId="22" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0" applyProtection="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -472,69 +477,70 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="7.15625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="6.20703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.15625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17.5234375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.83984375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="18.89453125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" bestFit="1" width="7.15625" customWidth="1"/>
+    <col min="2" max="2" bestFit="1" width="6.20703125" customWidth="1"/>
+    <col min="3" max="3" bestFit="1" width="13.15625" customWidth="1"/>
+    <col min="4" max="4" bestFit="1" width="17.5234375" customWidth="1"/>
+    <col min="5" max="5" bestFit="1" width="11.83984375" customWidth="1"/>
+    <col min="6" max="6" bestFit="1" width="18.89453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A1" t="s">
+    <row r="1">
+      <c r="A1" s="0" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="0" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
-        <v>29</v>
-      </c>
-      <c r="D1" t="s">
+      <c r="C1" s="0" t="s">
         <v>2</v>
       </c>
-      <c r="E1" t="s">
+      <c r="D1" s="0" t="s">
         <v>3</v>
       </c>
-      <c r="F1" t="s">
+      <c r="E1" s="0" t="s">
         <v>4</v>
       </c>
-      <c r="G1" t="s">
+      <c r="F1" s="0" t="s">
         <v>5</v>
       </c>
-      <c r="H1" t="s">
+      <c r="G1" s="0" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A2" t="s">
+      <c r="H1" s="0" t="s">
         <v>7</v>
       </c>
-      <c r="B2" t="s">
+    </row>
+    <row r="2">
+      <c r="A2" s="0" t="s">
         <v>8</v>
       </c>
-      <c r="C2" t="str">
+      <c r="B2" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" s="0" t="str">
         <f>_xlfn.CONCAT(A2," ", B2)</f>
         <v>Gonzalo Munoz</v>
       </c>
-      <c r="D2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E2" t="s">
+      <c r="D2" s="0" t="s">
         <v>10</v>
       </c>
-      <c r="F2" t="s">
+      <c r="E2" s="0" t="s">
         <v>11</v>
       </c>
-      <c r="G2" t="s">
+      <c r="F2" s="0" t="s">
         <v>12</v>
       </c>
-      <c r="H2" t="s">
+      <c r="G2" s="0" t="s">
         <v>13</v>
+      </c>
+      <c r="H2" s="0" t="s">
+        <v>14</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
@@ -548,25 +554,26 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A1" t="s">
-        <v>31</v>
-      </c>
-      <c r="B1" t="s">
-        <v>32</v>
-      </c>
-      <c r="C1" t="s">
-        <v>33</v>
-      </c>
-      <c r="D1" t="s">
-        <v>34</v>
-      </c>
-      <c r="E1" t="s">
-        <v>35</v>
+    <row r="1">
+      <c r="A1" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="B1" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="C1" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="D1" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="E1" s="0" t="s">
+        <v>19</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
@@ -580,51 +587,51 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="13.15625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.62890625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="52.89453125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.68359375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.15625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" bestFit="1" width="13.15625" customWidth="1"/>
+    <col min="2" max="2" bestFit="1" width="11.62890625" customWidth="1"/>
+    <col min="3" max="3" bestFit="1" width="52.89453125" customWidth="1"/>
+    <col min="4" max="4" bestFit="1" width="11.68359375" customWidth="1"/>
+    <col min="6" max="6" bestFit="1" width="10.15625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A1" t="s">
+    <row r="1">
+      <c r="A1" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="B1" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="D1" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="E1" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="F1" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="G1" s="0" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="B2" s="0" t="s">
         <v>28</v>
       </c>
-      <c r="B1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C1" t="s">
-        <v>15</v>
-      </c>
-      <c r="D1" t="s">
-        <v>16</v>
-      </c>
-      <c r="E1" t="s">
-        <v>17</v>
-      </c>
-      <c r="F1" t="s">
-        <v>18</v>
-      </c>
-      <c r="G1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A2" t="s">
-        <v>30</v>
-      </c>
-      <c r="B2" t="s">
-        <v>20</v>
-      </c>
-      <c r="C2" t="s">
-        <v>21</v>
+      <c r="C2" s="0" t="s">
+        <v>29</v>
       </c>
       <c r="D2" s="1">
         <v>44103</v>
       </c>
-      <c r="E2" t="s">
-        <v>22</v>
+      <c r="E2" s="0" t="s">
+        <v>30</v>
       </c>
       <c r="F2" s="1">
         <v>44133</v>
@@ -632,12 +639,13 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1A105FFB-A1DD-4D78-B3AA-B078684BB7D7}">
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
@@ -646,54 +654,69 @@
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
     <col min="1" max="1" width="18.05078125" customWidth="1"/>
-    <col min="2" max="2" width="13.15625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="31" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="5.47265625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" bestFit="1" width="13.15625" customWidth="1"/>
+    <col min="3" max="3" bestFit="1" width="31" customWidth="1"/>
+    <col min="4" max="4" bestFit="1" width="5.47265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B1" t="s">
-        <v>23</v>
-      </c>
-      <c r="C1" t="s">
+    <row r="1">
+      <c r="A1" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="B1" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="C1" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="D1" s="0" t="s">
         <v>24</v>
       </c>
-      <c r="D1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A2" t="s">
-        <v>20</v>
+    </row>
+    <row r="2">
+      <c r="A2" s="0" t="s">
+        <v>28</v>
       </c>
       <c r="B2" s="2">
         <v>44104</v>
       </c>
-      <c r="C2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D2" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A3" t="s">
-        <v>20</v>
+      <c r="C2" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="D2" s="0" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="0" t="s">
+        <v>28</v>
       </c>
       <c r="B3" s="3">
         <v>44104</v>
       </c>
-      <c r="C3" t="s">
-        <v>27</v>
-      </c>
-      <c r="D3" t="s">
-        <v>26</v>
+      <c r="C3" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="D3" s="0" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="B4" s="4">
+        <v>44107</v>
+      </c>
+      <c r="C4" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="D4" s="0" t="s">
+        <v>34</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>